--- a/Parallel programming/test.xlsx
+++ b/Parallel programming/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maksy\Documents\GitHub\University-projects-and-labs\Parallel programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA57F45-6F3E-4A9C-AE15-7655EA07AD84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F96B2B5-28EA-4C05-ACE7-A963E66031CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4AF427D-EDD7-4CD9-A68F-96442DCE51C0}"/>
+    <workbookView xWindow="14508" yWindow="1788" windowWidth="17280" windowHeight="8964" xr2:uid="{A4AF427D-EDD7-4CD9-A68F-96442DCE51C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>number</t>
   </si>
@@ -39,9 +39,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>my</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>cloud 2</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
     <t>0.2707029</t>
   </si>
   <si>
@@ -97,6 +91,9 @@
   </si>
   <si>
     <t>133.170618967</t>
+  </si>
+  <si>
+    <t>my pc</t>
   </si>
 </sst>
 </file>
@@ -121,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -129,12 +126,228 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -449,189 +662,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D23C32-B5D1-40A7-A574-085AA6AE5DCF}">
-  <dimension ref="A2:E22"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.77734375" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="3" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>4.7769131098520402E+36</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="3"/>
+      <c r="C8" s="6">
+        <v>99999</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="E8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="3"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="3">
+        <v>5.3113799281676698E+182</v>
+      </c>
+      <c r="C12" s="6">
         <v>1000</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>4.7769131098520402E+36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="E13" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="E14" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="C16" s="6">
+        <v>99999</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>99999</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E16" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="E17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E18" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="3"/>
+      <c r="C20" s="6">
+        <v>999999</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="3"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>5.3113799281676698E+182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+      <c r="E21" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="3"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>99999</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>999999</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E22" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="23" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C20:C22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
